--- a/PrisonersDilemma/experiment3/contest5/summary5.xlsx
+++ b/PrisonersDilemma/experiment3/contest5/summary5.xlsx
@@ -371,8 +371,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -420,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -437,6 +441,8 @@
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -454,6 +460,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -782,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -878,280 +886,283 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3.3683283203299998</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9">
-        <v>3.2618569493499998</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
       <c r="E8" s="9">
-        <v>3.0768915414200002</v>
+        <v>3.2203610244199998</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G8" s="9">
-        <v>3.2583672570700002</v>
+        <v>3.3656929040099999</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3.3485538891100002</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3.1868379340200002</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
       <c r="E9" s="9">
-        <v>2.9624827530200002</v>
+        <v>3.2163932974699998</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G9" s="9">
-        <v>3.1822152342800001</v>
+        <v>3.34637606734</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3.3296898498099998</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3.2070119644299999</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
       <c r="E10" s="9">
-        <v>2.9849195018099999</v>
+        <v>3.15335651991</v>
       </c>
       <c r="F10">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G10" s="9">
-        <v>3.2030727007799999</v>
+        <v>3.33064159671</v>
       </c>
       <c r="H10">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3.2922142235899998</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3.2829284008499999</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
       <c r="E11" s="9">
-        <v>3.1582138034799998</v>
+        <v>3.0847776523500001</v>
       </c>
       <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3.2919292438299999</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="G11" s="9">
-        <v>3.2760177212200001</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
+      <c r="I11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3.2831944430100002</v>
+      </c>
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3.15169462273</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
       <c r="E12" s="9">
-        <v>2.9470402527799999</v>
+        <v>3.1111830503700002</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G12" s="9">
-        <v>3.14555469052</v>
+        <v>3.2816665163900001</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3.2829284008499999</v>
+      </c>
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3.2253185511</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
       <c r="E13" s="9">
-        <v>3.0302702887200001</v>
+        <v>3.1582138034799998</v>
       </c>
       <c r="F13">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G13" s="9">
-        <v>3.2231122386400002</v>
+        <v>3.2760177212200001</v>
       </c>
       <c r="H13">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3.2771433809500001</v>
+      </c>
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3.2253000654499999</v>
-      </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
       <c r="E14" s="9">
-        <v>3.0378912388999999</v>
+        <v>3.10678599361</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G14" s="9">
-        <v>3.2182487644200002</v>
+        <v>3.2717703078999998</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3.2771433809500001</v>
+      </c>
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3.2395362480399998</v>
-      </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
       <c r="E15" s="9">
-        <v>3.1800367628099999</v>
+        <v>3.10678599361</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G15" s="9">
-        <v>3.2229728733999998</v>
+        <v>3.2717703078999998</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3.2669001688699999</v>
+      </c>
+      <c r="D16">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9">
-        <v>3.1316958592100002</v>
-      </c>
-      <c r="D16">
-        <v>32</v>
-      </c>
       <c r="E16" s="9">
-        <v>2.9861498476400001</v>
+        <v>3.1164549070000001</v>
       </c>
       <c r="F16">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G16" s="9">
-        <v>3.0762232139100001</v>
+        <v>3.2614746449999998</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3.2635310095699999</v>
+      </c>
+      <c r="D17">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="9">
-        <v>3.2141507145800001</v>
-      </c>
-      <c r="D17">
-        <v>24</v>
-      </c>
       <c r="E17" s="9">
-        <v>3.0222555171900001</v>
+        <v>3.08532503634</v>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G17" s="9">
-        <v>3.2066298562100002</v>
+        <v>3.2606173947100001</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
         <v>51</v>
@@ -1159,422 +1170,422 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3.2618569493499998</v>
+      </c>
+      <c r="D18">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9">
-        <v>3.2602287907699998</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
       <c r="E18" s="9">
-        <v>3.0988842036099999</v>
+        <v>3.0768915414200002</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G18" s="9">
-        <v>3.2559993194199999</v>
+        <v>3.2583672570700002</v>
       </c>
       <c r="H18">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3.26166759493</v>
+      </c>
+      <c r="D19">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3.1820240448899999</v>
-      </c>
-      <c r="D19">
-        <v>29</v>
-      </c>
       <c r="E19" s="9">
-        <v>2.9847142904599999</v>
+        <v>3.1070096509299998</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G19" s="9">
-        <v>3.1618641253100002</v>
+        <v>3.2571831089100001</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3.2602287907699998</v>
+      </c>
+      <c r="D20">
         <v>13</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3.2236589061799998</v>
-      </c>
-      <c r="D20">
-        <v>22</v>
-      </c>
       <c r="E20" s="9">
-        <v>3.0201153241699998</v>
+        <v>3.0988842036099999</v>
       </c>
       <c r="F20">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G20" s="9">
-        <v>3.2186901687399998</v>
+        <v>3.2559993194199999</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3.2558715283100002</v>
+      </c>
+      <c r="D21">
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3.2533776095000002</v>
-      </c>
-      <c r="D21">
+      <c r="E21" s="9">
+        <v>3.0873660823</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21" s="9">
+        <v>3.25168590556</v>
+      </c>
+      <c r="H21">
         <v>15</v>
       </c>
-      <c r="E21" s="9">
-        <v>3.05844050439</v>
-      </c>
-      <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21" s="9">
-        <v>3.2519700558400002</v>
-      </c>
-      <c r="H21">
-        <v>14</v>
-      </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3.2533776095000002</v>
+      </c>
+      <c r="D22">
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="9">
-        <v>3.1182596358799999</v>
-      </c>
-      <c r="D22">
-        <v>33</v>
-      </c>
       <c r="E22" s="9">
-        <v>2.8867265607100001</v>
+        <v>3.05844050439</v>
       </c>
       <c r="F22">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G22" s="9">
-        <v>3.1064282744399998</v>
+        <v>3.2519700558400002</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3.2477163354399998</v>
+      </c>
+      <c r="D23">
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3.1868379340200002</v>
-      </c>
-      <c r="D23">
-        <v>27</v>
-      </c>
       <c r="E23" s="9">
-        <v>2.9624827530200002</v>
+        <v>3.0831119817600001</v>
       </c>
       <c r="F23">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G23" s="9">
-        <v>3.1822152342800001</v>
+        <v>3.2428155753399999</v>
       </c>
       <c r="H23">
-        <v>27</v>
-      </c>
-      <c r="I23" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3.2459981438200001</v>
+      </c>
+      <c r="D24">
         <v>17</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3.2831944430100002</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
       <c r="E24" s="9">
-        <v>3.1111830503700002</v>
+        <v>3.1170797640400001</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G24" s="9">
-        <v>3.2816665163900001</v>
+        <v>3.2366885408899999</v>
       </c>
       <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3.2395362480399998</v>
+      </c>
+      <c r="D25">
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="9">
-        <v>3.2922142235899998</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
       <c r="E25" s="9">
-        <v>3.0847776523500001</v>
+        <v>3.1800367628099999</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G25" s="9">
-        <v>3.2919292438299999</v>
+        <v>3.2229728733999998</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3.2314224346999998</v>
+      </c>
+      <c r="D26">
         <v>19</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3.2771433809500001</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
       <c r="E26" s="9">
-        <v>3.10678599361</v>
+        <v>3.0338723244099999</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>3.2717703078999998</v>
+        <v>3.2271014617499998</v>
       </c>
       <c r="H26">
-        <v>8</v>
-      </c>
-      <c r="I26" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3.2253185511</v>
+      </c>
+      <c r="D27">
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3.1493169916800001</v>
-      </c>
-      <c r="D27">
-        <v>31</v>
-      </c>
       <c r="E27" s="9">
-        <v>2.9181151360199999</v>
+        <v>3.0302702887200001</v>
       </c>
       <c r="F27">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G27" s="9">
-        <v>3.1414875392899999</v>
+        <v>3.2231122386400002</v>
       </c>
       <c r="H27">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3.2253000654499999</v>
+      </c>
+      <c r="D28">
         <v>21</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3.2161367494199999</v>
-      </c>
-      <c r="D28">
-        <v>23</v>
-      </c>
       <c r="E28" s="9">
-        <v>2.99989255226</v>
+        <v>3.0378912388999999</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G28" s="9">
-        <v>3.21351405913</v>
+        <v>3.2182487644200002</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3.2236589061799998</v>
+      </c>
+      <c r="D29">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="9">
-        <v>3.2314224346999998</v>
-      </c>
-      <c r="D29">
-        <v>19</v>
-      </c>
       <c r="E29" s="9">
-        <v>3.0338723244099999</v>
+        <v>3.0201153241699998</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G29" s="9">
-        <v>3.2271014617499998</v>
+        <v>3.2186901687399998</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3.2161367494199999</v>
+      </c>
+      <c r="D30">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3.26166759493</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
       <c r="E30" s="9">
-        <v>3.1070096509299998</v>
+        <v>2.99989255226</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G30" s="9">
-        <v>3.2571831089100001</v>
+        <v>3.21351405913</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="9">
+        <v>3.2141507145800001</v>
+      </c>
+      <c r="D31">
         <v>24</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3.0178416885799999</v>
-      </c>
-      <c r="D31">
-        <v>34</v>
-      </c>
       <c r="E31" s="9">
-        <v>2.7545031210599999</v>
+        <v>3.0222555171900001</v>
       </c>
       <c r="F31">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G31" s="9">
-        <v>2.9536742980400001</v>
+        <v>3.2066298562100002</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="9">
+        <v>3.2070119644299999</v>
+      </c>
+      <c r="D32">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3.3296898498099998</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
       <c r="E32" s="9">
-        <v>3.15335651991</v>
+        <v>2.9849195018099999</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G32" s="9">
-        <v>3.33064159671</v>
+        <v>3.2030727007799999</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1605,266 +1616,263 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="9">
+        <v>3.1868379340200002</v>
+      </c>
+      <c r="D34">
         <v>27</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="9">
-        <v>3.3683283203299998</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
       <c r="E34" s="9">
-        <v>3.2203610244199998</v>
+        <v>2.9624827530200002</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G34" s="9">
-        <v>3.3656929040099999</v>
+        <v>3.1822152342800001</v>
       </c>
       <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0.2</v>
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="9">
+        <v>3.1868379340200002</v>
+      </c>
+      <c r="D35">
         <v>28</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="9">
-        <v>3.3485538891100002</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
       <c r="E35" s="9">
-        <v>3.2163932974699998</v>
+        <v>2.9624827530200002</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G35" s="9">
-        <v>3.34637606734</v>
+        <v>3.1822152342800001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="9">
+        <v>3.1820240448899999</v>
+      </c>
+      <c r="D36">
         <v>29</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="9">
-        <v>3.2635310095699999</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
       <c r="E36" s="9">
-        <v>3.08532503634</v>
+        <v>2.9847142904599999</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G36" s="9">
-        <v>3.2606173947100001</v>
+        <v>3.1618641253100002</v>
       </c>
       <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="9">
+        <v>3.15169462273</v>
+      </c>
+      <c r="D37">
         <v>30</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="9">
-        <v>3.2669001688699999</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
       <c r="E37" s="9">
-        <v>3.1164549070000001</v>
+        <v>2.9470402527799999</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G37" s="9">
-        <v>3.2614746449999998</v>
+        <v>3.14555469052</v>
       </c>
       <c r="H37">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="9">
+        <v>3.1493169916800001</v>
+      </c>
+      <c r="D38">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="9">
-        <v>3.2459981438200001</v>
-      </c>
-      <c r="D38">
-        <v>17</v>
-      </c>
       <c r="E38" s="9">
-        <v>3.1170797640400001</v>
+        <v>2.9181151360199999</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G38" s="9">
-        <v>3.2366885408899999</v>
+        <v>3.1414875392899999</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="9">
+        <v>3.1316958592100002</v>
+      </c>
+      <c r="D39">
         <v>32</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="9">
-        <v>3.2558715283100002</v>
-      </c>
-      <c r="D39">
-        <v>14</v>
-      </c>
       <c r="E39" s="9">
-        <v>3.0873660823</v>
+        <v>2.9861498476400001</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G39" s="9">
-        <v>3.25168590556</v>
+        <v>3.0762232139100001</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9">
+        <v>3.1182596358799999</v>
+      </c>
+      <c r="D40">
         <v>33</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="9">
-        <v>3.2477163354399998</v>
-      </c>
-      <c r="D40">
-        <v>16</v>
-      </c>
       <c r="E40" s="9">
-        <v>3.0831119817600001</v>
+        <v>2.8867265607100001</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G40" s="9">
-        <v>3.2428155753399999</v>
+        <v>3.1064282744399998</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="9">
+        <v>3.0178416885799999</v>
+      </c>
+      <c r="D41">
         <v>34</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="9">
-        <v>3.2771433809500001</v>
-      </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
       <c r="E41" s="9">
-        <v>3.10678599361</v>
+        <v>2.7545031210599999</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G41" s="9">
-        <v>3.2717703078999998</v>
+        <v>2.9536742980400001</v>
       </c>
       <c r="H41">
-        <v>7</v>
-      </c>
-      <c r="I41" t="s">
-        <v>57</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="B45">
+        <v>3.2039235104044441</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
-        <v>3.2039235104044441</v>
+        <v>3.2548830209800004</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47">
-        <v>3.2548830209800004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B47" s="9">
         <v>3.2236589061799998</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A7:I41">
     <sortState ref="A8:I41">
-      <sortCondition ref="A7:A41"/>
+      <sortCondition ref="D7:D41"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>

--- a/PrisonersDilemma/experiment3/contest5/summary5.xlsx
+++ b/PrisonersDilemma/experiment3/contest5/summary5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29720" windowHeight="20340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary.csv" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Datetime</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Number of strategies</t>
-  </si>
-  <si>
-    <t>Str_numbers</t>
   </si>
   <si>
     <t>Strategy name</t>
@@ -246,36 +243,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WSLS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TFT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALLD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦略のタイプ</t>
-    <rPh sb="0" eb="2">
-      <t>センリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平均利得（セッション平均）</t>
-    <rPh sb="0" eb="4">
-      <t>ヘイキンリトク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TFT'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Str No.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -324,42 +300,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -371,7 +317,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -409,22 +355,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="57">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -443,6 +404,16 @@
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -462,6 +433,16 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -790,21 +771,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -857,451 +838,451 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
         <v>65</v>
       </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9">
-        <v>3.3683283203299998</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.2618569493499998</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3.2203610244199998</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.0768915414200002</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3.3656929040099999</v>
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.2583672570700002</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.1868379340200002</v>
+      </c>
+      <c r="D9">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3.3485538891100002</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9">
-        <v>3.2163932974699998</v>
+      <c r="E9" s="3">
+        <v>2.9624827530200002</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>3.34637606734</v>
+        <v>30</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.1822152342800001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.2070119644299999</v>
+      </c>
+      <c r="D10">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3.3296898498099998</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>3.15335651991</v>
+      <c r="E10" s="3">
+        <v>2.9849195018099999</v>
       </c>
       <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9">
-        <v>3.33064159671</v>
+        <v>27</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.2030727007799999</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3.2922142235899998</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.2829284008499999</v>
       </c>
       <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.1582138034799998</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="E11" s="9">
-        <v>3.0847776523500001</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11" s="9">
-        <v>3.2919292438299999</v>
+      <c r="G11" s="3">
+        <v>3.2760177212200001</v>
       </c>
       <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="3">
+        <v>3.15169462273</v>
+      </c>
+      <c r="D12">
         <v>30</v>
       </c>
-      <c r="C12" s="9">
-        <v>3.2831944430100002</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9">
-        <v>3.1111830503700002</v>
+      <c r="E12" s="3">
+        <v>2.9470402527799999</v>
       </c>
       <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12" s="9">
-        <v>3.2816665163900001</v>
+        <v>31</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3.14555469052</v>
       </c>
       <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3.2829284008499999</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.2253185511</v>
       </c>
       <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" s="9">
-        <v>3.1582138034799998</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.0302702887200001</v>
       </c>
       <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9">
-        <v>3.2760177212200001</v>
+        <v>22</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3.2231122386400002</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3.2771433809500001</v>
+      <c r="C14" s="3">
+        <v>3.2253000654499999</v>
       </c>
       <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
-        <v>3.10678599361</v>
+        <v>21</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.0378912388999999</v>
       </c>
       <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3.2717703078999998</v>
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.2182487644200002</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3.2771433809500001</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.2395362480399998</v>
       </c>
       <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15" s="9">
-        <v>3.10678599361</v>
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3.1800367628099999</v>
       </c>
       <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9">
-        <v>3.2717703078999998</v>
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3.2229728733999998</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="9">
-        <v>3.2669001688699999</v>
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3.1316958592100002</v>
       </c>
       <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16" s="9">
-        <v>3.1164549070000001</v>
+        <v>32</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.9861498476400001</v>
       </c>
       <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9">
-        <v>3.2614746449999998</v>
+        <v>26</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3.0762232139100001</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="9">
-        <v>3.2635310095699999</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.2141507145800001</v>
       </c>
       <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9">
-        <v>3.08532503634</v>
+        <v>24</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3.0222555171900001</v>
       </c>
       <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17" s="9">
-        <v>3.2606173947100001</v>
+        <v>23</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.2066298562100002</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9">
-        <v>3.2618569493499998</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3.2602287907699998</v>
       </c>
       <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9">
-        <v>3.0768915414200002</v>
+        <v>13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.0988842036099999</v>
       </c>
       <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="G18" s="9">
-        <v>3.2583672570700002</v>
+        <v>12</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3.2559993194199999</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3.26166759493</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3.1820240448899999</v>
       </c>
       <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19" s="9">
-        <v>3.1070096509299998</v>
+        <v>29</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.9847142904599999</v>
       </c>
       <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19" s="9">
-        <v>3.2571831089100001</v>
+        <v>28</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3.1618641253100002</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3.2236589061799998</v>
+      </c>
+      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3.0201153241699998</v>
+      </c>
+      <c r="F20">
         <v>24</v>
       </c>
-      <c r="C20" s="9">
-        <v>3.2602287907699998</v>
-      </c>
-      <c r="D20">
-        <v>13</v>
-      </c>
-      <c r="E20" s="9">
-        <v>3.0988842036099999</v>
-      </c>
-      <c r="F20">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9">
-        <v>3.2559993194199999</v>
+      <c r="G20" s="3">
+        <v>3.2186901687399998</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3.2558715283100002</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3.2533776095000002</v>
       </c>
       <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.05844050439</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3.2519700558400002</v>
+      </c>
+      <c r="H21">
         <v>14</v>
       </c>
-      <c r="E21" s="9">
-        <v>3.0873660823</v>
-      </c>
-      <c r="F21">
-        <v>13</v>
-      </c>
-      <c r="G21" s="9">
-        <v>3.25168590556</v>
-      </c>
-      <c r="H21">
-        <v>15</v>
-      </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="9">
-        <v>3.2533776095000002</v>
+      <c r="C22" s="3">
+        <v>3.1182596358799999</v>
       </c>
       <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22" s="9">
-        <v>3.05844050439</v>
+        <v>33</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.8867265607100001</v>
       </c>
       <c r="F22">
-        <v>18</v>
-      </c>
-      <c r="G22" s="9">
-        <v>3.2519700558400002</v>
+        <v>33</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3.1064282744399998</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
         <v>53</v>
@@ -1309,305 +1290,302 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3.2477163354399998</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3.1868379340200002</v>
       </c>
       <c r="D23">
-        <v>16</v>
-      </c>
-      <c r="E23" s="9">
-        <v>3.0831119817600001</v>
+        <v>27</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.9624827530200002</v>
       </c>
       <c r="F23">
-        <v>16</v>
-      </c>
-      <c r="G23" s="9">
-        <v>3.2428155753399999</v>
+        <v>29</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3.1822152342800001</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3.2459981438200001</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3.2831944430100002</v>
       </c>
       <c r="D24">
-        <v>17</v>
-      </c>
-      <c r="E24" s="9">
-        <v>3.1170797640400001</v>
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3.1111830503700002</v>
       </c>
       <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24" s="9">
-        <v>3.2366885408899999</v>
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3.2816665163900001</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="9">
-        <v>3.2395362480399998</v>
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.2922142235899998</v>
       </c>
       <c r="D25">
-        <v>18</v>
-      </c>
-      <c r="E25" s="9">
-        <v>3.1800367628099999</v>
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3.0847776523500001</v>
       </c>
       <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25" s="9">
-        <v>3.2229728733999998</v>
+        <v>15</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.2919292438299999</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3.2314224346999998</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.2771433809500001</v>
       </c>
       <c r="D26">
-        <v>19</v>
-      </c>
-      <c r="E26" s="9">
-        <v>3.0338723244099999</v>
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.10678599361</v>
       </c>
       <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26" s="9">
-        <v>3.2271014617499998</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3.2717703078999998</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3.2253185511</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.1493169916800001</v>
       </c>
       <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27" s="9">
-        <v>3.0302702887200001</v>
+        <v>31</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.9181151360199999</v>
       </c>
       <c r="F27">
-        <v>22</v>
-      </c>
-      <c r="G27" s="9">
-        <v>3.2231122386400002</v>
+        <v>32</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3.1414875392899999</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3.2253000654499999</v>
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.2161367494199999</v>
       </c>
       <c r="D28">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9">
-        <v>3.0378912388999999</v>
+        <v>23</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.99989255226</v>
       </c>
       <c r="F28">
-        <v>19</v>
-      </c>
-      <c r="G28" s="9">
-        <v>3.2182487644200002</v>
+        <v>25</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3.21351405913</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="9">
-        <v>3.2236589061799998</v>
+        <v>34</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.2314224346999998</v>
       </c>
       <c r="D29">
-        <v>22</v>
-      </c>
-      <c r="E29" s="9">
-        <v>3.0201153241699998</v>
+        <v>19</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.0338723244099999</v>
       </c>
       <c r="F29">
-        <v>24</v>
-      </c>
-      <c r="G29" s="9">
-        <v>3.2186901687399998</v>
+        <v>20</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3.2271014617499998</v>
       </c>
       <c r="H29">
-        <v>21</v>
-      </c>
-      <c r="I29" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>21</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3.2161367494199999</v>
+        <v>23</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3.26166759493</v>
       </c>
       <c r="D30">
-        <v>23</v>
-      </c>
-      <c r="E30" s="9">
-        <v>2.99989255226</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3.1070096509299998</v>
       </c>
       <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="G30" s="9">
-        <v>3.21351405913</v>
+        <v>9</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3.2571831089100001</v>
       </c>
       <c r="H30">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3.2141507145800001</v>
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3.0178416885799999</v>
       </c>
       <c r="D31">
-        <v>24</v>
-      </c>
-      <c r="E31" s="9">
-        <v>3.0222555171900001</v>
+        <v>34</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.7545031210599999</v>
       </c>
       <c r="F31">
-        <v>23</v>
-      </c>
-      <c r="G31" s="9">
-        <v>3.2066298562100002</v>
+        <v>34</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2.9536742980400001</v>
       </c>
       <c r="H31">
-        <v>24</v>
-      </c>
-      <c r="I31" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3.3296898498099998</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3.2070119644299999</v>
-      </c>
-      <c r="D32">
-        <v>25</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2.9849195018099999</v>
+      <c r="E32" s="3">
+        <v>3.15335651991</v>
       </c>
       <c r="F32">
-        <v>27</v>
-      </c>
-      <c r="G32" s="9">
-        <v>3.2030727007799999</v>
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3.33064159671</v>
       </c>
       <c r="H32">
-        <v>25</v>
-      </c>
-      <c r="I32" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="B33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3">
         <v>3.19399658213</v>
       </c>
       <c r="D33">
         <v>26</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="3">
         <v>3.0325557437000001</v>
       </c>
       <c r="F33">
         <v>21</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="3">
         <v>3.1732268074499999</v>
       </c>
       <c r="H33">
@@ -1616,265 +1594,265 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>16</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="9">
-        <v>3.1868379340200002</v>
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3.3683283203299998</v>
       </c>
       <c r="D34">
-        <v>27</v>
-      </c>
-      <c r="E34" s="9">
-        <v>2.9624827530200002</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3.2203610244199998</v>
       </c>
       <c r="F34">
-        <v>29</v>
-      </c>
-      <c r="G34" s="9">
-        <v>3.1822152342800001</v>
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3.3656929040099999</v>
       </c>
       <c r="H34">
-        <v>27</v>
-      </c>
-      <c r="I34" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.3485538891100002</v>
+      </c>
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="9">
-        <v>3.1868379340200002</v>
-      </c>
-      <c r="D35">
-        <v>28</v>
-      </c>
-      <c r="E35" s="9">
-        <v>2.9624827530200002</v>
+      <c r="E35" s="3">
+        <v>3.2163932974699998</v>
       </c>
       <c r="F35">
-        <v>30</v>
-      </c>
-      <c r="G35" s="9">
-        <v>3.1822152342800001</v>
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3.34637606734</v>
       </c>
       <c r="H35">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="9">
-        <v>3.1820240448899999</v>
+        <v>29</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3.2635310095699999</v>
       </c>
       <c r="D36">
-        <v>29</v>
-      </c>
-      <c r="E36" s="9">
-        <v>2.9847142904599999</v>
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3.08532503634</v>
       </c>
       <c r="F36">
-        <v>28</v>
-      </c>
-      <c r="G36" s="9">
-        <v>3.1618641253100002</v>
+        <v>14</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3.2606173947100001</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="9">
-        <v>3.15169462273</v>
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3.2669001688699999</v>
       </c>
       <c r="D37">
-        <v>30</v>
-      </c>
-      <c r="E37" s="9">
-        <v>2.9470402527799999</v>
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3.1164549070000001</v>
       </c>
       <c r="F37">
-        <v>31</v>
-      </c>
-      <c r="G37" s="9">
-        <v>3.14555469052</v>
+        <v>7</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3.2614746449999998</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="9">
-        <v>3.1493169916800001</v>
+        <v>31</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3.2459981438200001</v>
       </c>
       <c r="D38">
-        <v>31</v>
-      </c>
-      <c r="E38" s="9">
-        <v>2.9181151360199999</v>
+        <v>17</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3.1170797640400001</v>
       </c>
       <c r="F38">
-        <v>32</v>
-      </c>
-      <c r="G38" s="9">
-        <v>3.1414875392899999</v>
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3.2366885408899999</v>
       </c>
       <c r="H38">
-        <v>31</v>
-      </c>
-      <c r="I38" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="9">
-        <v>3.1316958592100002</v>
+        <v>32</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3.2558715283100002</v>
       </c>
       <c r="D39">
-        <v>32</v>
-      </c>
-      <c r="E39" s="9">
-        <v>2.9861498476400001</v>
+        <v>14</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3.0873660823</v>
       </c>
       <c r="F39">
-        <v>26</v>
-      </c>
-      <c r="G39" s="9">
-        <v>3.0762232139100001</v>
+        <v>13</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3.25168590556</v>
       </c>
       <c r="H39">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="9">
-        <v>3.1182596358799999</v>
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3.2477163354399998</v>
       </c>
       <c r="D40">
-        <v>33</v>
-      </c>
-      <c r="E40" s="9">
-        <v>2.8867265607100001</v>
+        <v>16</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3.0831119817600001</v>
       </c>
       <c r="F40">
-        <v>33</v>
-      </c>
-      <c r="G40" s="9">
-        <v>3.1064282744399998</v>
+        <v>16</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3.2428155753399999</v>
       </c>
       <c r="H40">
-        <v>32</v>
-      </c>
-      <c r="I40" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>24</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="9">
-        <v>3.0178416885799999</v>
+        <v>34</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3.2771433809500001</v>
       </c>
       <c r="D41">
-        <v>34</v>
-      </c>
-      <c r="E41" s="9">
-        <v>2.7545031210599999</v>
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3.10678599361</v>
       </c>
       <c r="F41">
-        <v>34</v>
-      </c>
-      <c r="G41" s="9">
-        <v>2.9536742980400001</v>
+        <v>11</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3.2717703078999998</v>
       </c>
       <c r="H41">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="3">
+        <f>AVERAGE(C8:C41)</f>
+        <v>3.2316877925352934</v>
+      </c>
+      <c r="E43" s="3">
+        <f>AVERAGE(E8:E41)</f>
+        <v>3.0509542639908824</v>
+      </c>
+      <c r="G43" s="3">
+        <f>AVERAGE(G8:G41)</f>
+        <v>3.2226146473126462</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45">
-        <v>3.2039235104044441</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="G45"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46">
-        <v>3.2548830209800004</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="G46"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="9">
-        <v>3.2236589061799998</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="3"/>
+      <c r="G48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I41">
-    <sortState ref="A8:I41">
-      <sortCondition ref="D7:D41"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A7:I41"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
